--- a/Kevin/CS470.skel/hw4/plot_impulse_function_box.xlsx
+++ b/Kevin/CS470.skel/hw4/plot_impulse_function_box.xlsx
@@ -1,30 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anthony/Desktop/classes/image processing/Image-Processing-Projects/Anthony/CS470.skel/hw4/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kille\Desktop\Git\Image-Processing-Projects\Kevin\CS470.skel\hw4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EBD5D892-6826-AA40-A4DA-8B6859C44525}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C862DF8E-BE8C-4234-93B3-8CA0C61E71C7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16680" xr2:uid="{0A18D70B-B3AD-7C41-96E6-8D312FACE4E4}"/>
+    <workbookView xWindow="4335" yWindow="1958" windowWidth="18000" windowHeight="9847" xr2:uid="{0A18D70B-B3AD-7C41-96E6-8D312FACE4E4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$A$1</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$A$2:$A$258</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$B$1</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$B$2:$B$258</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$A$1</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Sheet1!$A$2:$A$258</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Sheet1!$B$1</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Sheet1!$B$2:$B$258</definedName>
-  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -119,6 +109,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Impulse Box</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -151,8 +166,8 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -180,12 +195,12 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:cat>
+          <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$258</c:f>
+              <c:f>Sheet1!$A$2:$A$257</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="257"/>
+                <c:ptCount val="256"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -956,13 +971,13 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:cat>
-          <c:val>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$258</c:f>
+              <c:f>Sheet1!$B$2:$B$257</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="257"/>
+                <c:ptCount val="256"/>
                 <c:pt idx="0">
                   <c:v>100</c:v>
                 </c:pt>
@@ -1733,7 +1748,7 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
+          </c:yVal>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -1749,14 +1764,15 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:smooth val="0"/>
         <c:axId val="65044527"/>
         <c:axId val="65046207"/>
-      </c:lineChart>
-      <c:catAx>
+      </c:scatterChart>
+      <c:valAx>
         <c:axId val="65044527"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="255"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -1799,15 +1815,13 @@
         </c:txPr>
         <c:crossAx val="65046207"/>
         <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
       <c:valAx>
         <c:axId val="65046207"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="200"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1858,7 +1872,7 @@
         </c:txPr>
         <c:crossAx val="65044527"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -2465,16 +2479,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>361950</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>120650</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>223837</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>130174</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>806450</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>652462</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>61913</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2802,15 +2816,15 @@
   <dimension ref="A1:B257"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="2" width="10.83203125" style="1"/>
+    <col min="1" max="2" width="10.8125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2818,7 +2832,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -2826,7 +2840,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -2834,7 +2848,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -2842,7 +2856,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -2850,7 +2864,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -2858,7 +2872,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -2866,7 +2880,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -2874,7 +2888,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -2882,7 +2896,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -2890,7 +2904,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -2898,7 +2912,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -2906,7 +2920,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -2914,7 +2928,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -2922,7 +2936,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -2930,7 +2944,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -2938,7 +2952,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -2946,7 +2960,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -2954,7 +2968,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -2962,7 +2976,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -2970,7 +2984,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -2978,7 +2992,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -2986,7 +3000,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -2994,7 +3008,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -3002,7 +3016,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -3010,7 +3024,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -3018,7 +3032,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -3026,7 +3040,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -3034,7 +3048,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -3042,7 +3056,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -3050,7 +3064,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -3058,7 +3072,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -3066,7 +3080,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -3074,7 +3088,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -3082,7 +3096,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -3090,7 +3104,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -3098,7 +3112,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -3106,7 +3120,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -3114,7 +3128,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -3122,7 +3136,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -3130,7 +3144,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -3138,7 +3152,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -3146,7 +3160,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -3154,7 +3168,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -3162,7 +3176,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -3170,7 +3184,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -3178,7 +3192,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -3186,7 +3200,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -3194,7 +3208,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -3202,7 +3216,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -3210,7 +3224,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -3218,7 +3232,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -3226,7 +3240,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -3234,7 +3248,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -3242,7 +3256,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -3250,7 +3264,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -3258,7 +3272,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -3266,7 +3280,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -3274,7 +3288,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -3282,7 +3296,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -3290,7 +3304,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -3298,7 +3312,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -3306,7 +3320,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -3314,7 +3328,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -3322,7 +3336,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -3330,7 +3344,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -3338,7 +3352,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -3346,7 +3360,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -3354,7 +3368,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -3362,7 +3376,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -3370,7 +3384,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -3378,7 +3392,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -3386,7 +3400,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -3394,7 +3408,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -3402,7 +3416,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -3410,7 +3424,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -3418,7 +3432,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -3426,7 +3440,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -3434,7 +3448,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -3442,7 +3456,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -3450,7 +3464,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -3458,7 +3472,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -3466,7 +3480,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -3474,7 +3488,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -3482,7 +3496,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -3490,7 +3504,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -3498,7 +3512,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -3506,7 +3520,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -3514,7 +3528,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -3522,7 +3536,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -3530,7 +3544,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -3538,7 +3552,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -3546,7 +3560,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -3554,7 +3568,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -3562,7 +3576,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -3570,7 +3584,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -3578,7 +3592,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -3586,7 +3600,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A98" s="1">
         <v>96</v>
       </c>
@@ -3594,7 +3608,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A99" s="1">
         <v>97</v>
       </c>
@@ -3602,7 +3616,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A100" s="1">
         <v>98</v>
       </c>
@@ -3610,7 +3624,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A101" s="1">
         <v>99</v>
       </c>
@@ -3618,7 +3632,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A102" s="1">
         <v>100</v>
       </c>
@@ -3626,7 +3640,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A103" s="1">
         <v>101</v>
       </c>
@@ -3634,7 +3648,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A104" s="1">
         <v>102</v>
       </c>
@@ -3642,7 +3656,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A105" s="1">
         <v>103</v>
       </c>
@@ -3650,7 +3664,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A106" s="1">
         <v>104</v>
       </c>
@@ -3658,7 +3672,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A107" s="1">
         <v>105</v>
       </c>
@@ -3666,7 +3680,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A108" s="1">
         <v>106</v>
       </c>
@@ -3674,7 +3688,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A109" s="1">
         <v>107</v>
       </c>
@@ -3682,7 +3696,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A110" s="1">
         <v>108</v>
       </c>
@@ -3690,7 +3704,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A111" s="1">
         <v>109</v>
       </c>
@@ -3698,7 +3712,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A112" s="1">
         <v>110</v>
       </c>
@@ -3706,7 +3720,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A113" s="1">
         <v>111</v>
       </c>
@@ -3714,7 +3728,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A114" s="1">
         <v>112</v>
       </c>
@@ -3722,7 +3736,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A115" s="1">
         <v>113</v>
       </c>
@@ -3730,7 +3744,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A116" s="1">
         <v>114</v>
       </c>
@@ -3738,7 +3752,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A117" s="1">
         <v>115</v>
       </c>
@@ -3746,7 +3760,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A118" s="1">
         <v>116</v>
       </c>
@@ -3754,7 +3768,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A119" s="1">
         <v>117</v>
       </c>
@@ -3762,7 +3776,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A120" s="1">
         <v>118</v>
       </c>
@@ -3770,7 +3784,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A121" s="1">
         <v>119</v>
       </c>
@@ -3778,7 +3792,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A122" s="1">
         <v>120</v>
       </c>
@@ -3786,7 +3800,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A123" s="1">
         <v>121</v>
       </c>
@@ -3794,7 +3808,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A124" s="1">
         <v>122</v>
       </c>
@@ -3802,7 +3816,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A125" s="1">
         <v>123</v>
       </c>
@@ -3810,7 +3824,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A126" s="1">
         <v>124</v>
       </c>
@@ -3818,7 +3832,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A127" s="1">
         <v>125</v>
       </c>
@@ -3826,7 +3840,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A128" s="1">
         <v>126</v>
       </c>
@@ -3834,7 +3848,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A129" s="1">
         <v>127</v>
       </c>
@@ -3842,7 +3856,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A130" s="1">
         <v>128</v>
       </c>
@@ -3850,7 +3864,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A131" s="1">
         <v>129</v>
       </c>
@@ -3858,7 +3872,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A132" s="1">
         <v>130</v>
       </c>
@@ -3866,7 +3880,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A133" s="1">
         <v>131</v>
       </c>
@@ -3874,7 +3888,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A134" s="1">
         <v>132</v>
       </c>
@@ -3882,7 +3896,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A135" s="1">
         <v>133</v>
       </c>
@@ -3890,7 +3904,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A136" s="1">
         <v>134</v>
       </c>
@@ -3898,7 +3912,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A137" s="1">
         <v>135</v>
       </c>
@@ -3906,7 +3920,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A138" s="1">
         <v>136</v>
       </c>
@@ -3914,7 +3928,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A139" s="1">
         <v>137</v>
       </c>
@@ -3922,7 +3936,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A140" s="1">
         <v>138</v>
       </c>
@@ -3930,7 +3944,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A141" s="1">
         <v>139</v>
       </c>
@@ -3938,7 +3952,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A142" s="1">
         <v>140</v>
       </c>
@@ -3946,7 +3960,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A143" s="1">
         <v>141</v>
       </c>
@@ -3954,7 +3968,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A144" s="1">
         <v>142</v>
       </c>
@@ -3962,7 +3976,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A145" s="1">
         <v>143</v>
       </c>
@@ -3970,7 +3984,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A146" s="1">
         <v>144</v>
       </c>
@@ -3978,7 +3992,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A147" s="1">
         <v>145</v>
       </c>
@@ -3986,7 +4000,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A148" s="1">
         <v>146</v>
       </c>
@@ -3994,7 +4008,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A149" s="1">
         <v>147</v>
       </c>
@@ -4002,7 +4016,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A150" s="1">
         <v>148</v>
       </c>
@@ -4010,7 +4024,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A151" s="1">
         <v>149</v>
       </c>
@@ -4018,7 +4032,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A152" s="1">
         <v>150</v>
       </c>
@@ -4026,7 +4040,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A153" s="1">
         <v>151</v>
       </c>
@@ -4034,7 +4048,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A154" s="1">
         <v>152</v>
       </c>
@@ -4042,7 +4056,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A155" s="1">
         <v>153</v>
       </c>
@@ -4050,7 +4064,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A156" s="1">
         <v>154</v>
       </c>
@@ -4058,7 +4072,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A157" s="1">
         <v>155</v>
       </c>
@@ -4066,7 +4080,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A158" s="1">
         <v>156</v>
       </c>
@@ -4074,7 +4088,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A159" s="1">
         <v>157</v>
       </c>
@@ -4082,7 +4096,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A160" s="1">
         <v>158</v>
       </c>
@@ -4090,7 +4104,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A161" s="1">
         <v>159</v>
       </c>
@@ -4098,7 +4112,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A162" s="1">
         <v>160</v>
       </c>
@@ -4106,7 +4120,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A163" s="1">
         <v>161</v>
       </c>
@@ -4114,7 +4128,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A164" s="1">
         <v>162</v>
       </c>
@@ -4122,7 +4136,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A165" s="1">
         <v>163</v>
       </c>
@@ -4130,7 +4144,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A166" s="1">
         <v>164</v>
       </c>
@@ -4138,7 +4152,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A167" s="1">
         <v>165</v>
       </c>
@@ -4146,7 +4160,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A168" s="1">
         <v>166</v>
       </c>
@@ -4154,7 +4168,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A169" s="1">
         <v>167</v>
       </c>
@@ -4162,7 +4176,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A170" s="1">
         <v>168</v>
       </c>
@@ -4170,7 +4184,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A171" s="1">
         <v>169</v>
       </c>
@@ -4178,7 +4192,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A172" s="1">
         <v>170</v>
       </c>
@@ -4186,7 +4200,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A173" s="1">
         <v>171</v>
       </c>
@@ -4194,7 +4208,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A174" s="1">
         <v>172</v>
       </c>
@@ -4202,7 +4216,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A175" s="1">
         <v>173</v>
       </c>
@@ -4210,7 +4224,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A176" s="1">
         <v>174</v>
       </c>
@@ -4218,7 +4232,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A177" s="1">
         <v>175</v>
       </c>
@@ -4226,7 +4240,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A178" s="1">
         <v>176</v>
       </c>
@@ -4234,7 +4248,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A179" s="1">
         <v>177</v>
       </c>
@@ -4242,7 +4256,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A180" s="1">
         <v>178</v>
       </c>
@@ -4250,7 +4264,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A181" s="1">
         <v>179</v>
       </c>
@@ -4258,7 +4272,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A182" s="1">
         <v>180</v>
       </c>
@@ -4266,7 +4280,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A183" s="1">
         <v>181</v>
       </c>
@@ -4274,7 +4288,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A184" s="1">
         <v>182</v>
       </c>
@@ -4282,7 +4296,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A185" s="1">
         <v>183</v>
       </c>
@@ -4290,7 +4304,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A186" s="1">
         <v>184</v>
       </c>
@@ -4298,7 +4312,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A187" s="1">
         <v>185</v>
       </c>
@@ -4306,7 +4320,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A188" s="1">
         <v>186</v>
       </c>
@@ -4314,7 +4328,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A189" s="1">
         <v>187</v>
       </c>
@@ -4322,7 +4336,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A190" s="1">
         <v>188</v>
       </c>
@@ -4330,7 +4344,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A191" s="1">
         <v>189</v>
       </c>
@@ -4338,7 +4352,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A192" s="1">
         <v>190</v>
       </c>
@@ -4346,7 +4360,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A193" s="1">
         <v>191</v>
       </c>
@@ -4354,7 +4368,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A194" s="1">
         <v>192</v>
       </c>
@@ -4362,7 +4376,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A195" s="1">
         <v>193</v>
       </c>
@@ -4370,7 +4384,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A196" s="1">
         <v>194</v>
       </c>
@@ -4378,7 +4392,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A197" s="1">
         <v>195</v>
       </c>
@@ -4386,7 +4400,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A198" s="1">
         <v>196</v>
       </c>
@@ -4394,7 +4408,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A199" s="1">
         <v>197</v>
       </c>
@@ -4402,7 +4416,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A200" s="1">
         <v>198</v>
       </c>
@@ -4410,7 +4424,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A201" s="1">
         <v>199</v>
       </c>
@@ -4418,7 +4432,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A202" s="1">
         <v>200</v>
       </c>
@@ -4426,7 +4440,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A203" s="1">
         <v>201</v>
       </c>
@@ -4434,7 +4448,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A204" s="1">
         <v>202</v>
       </c>
@@ -4442,7 +4456,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A205" s="1">
         <v>203</v>
       </c>
@@ -4450,7 +4464,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A206" s="1">
         <v>204</v>
       </c>
@@ -4458,7 +4472,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A207" s="1">
         <v>205</v>
       </c>
@@ -4466,7 +4480,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A208" s="1">
         <v>206</v>
       </c>
@@ -4474,7 +4488,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A209" s="1">
         <v>207</v>
       </c>
@@ -4482,7 +4496,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A210" s="1">
         <v>208</v>
       </c>
@@ -4490,7 +4504,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A211" s="1">
         <v>209</v>
       </c>
@@ -4498,7 +4512,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A212" s="1">
         <v>210</v>
       </c>
@@ -4506,7 +4520,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A213" s="1">
         <v>211</v>
       </c>
@@ -4514,7 +4528,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A214" s="1">
         <v>212</v>
       </c>
@@ -4522,7 +4536,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A215" s="1">
         <v>213</v>
       </c>
@@ -4530,7 +4544,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A216" s="1">
         <v>214</v>
       </c>
@@ -4538,7 +4552,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A217" s="1">
         <v>215</v>
       </c>
@@ -4546,7 +4560,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A218" s="1">
         <v>216</v>
       </c>
@@ -4554,7 +4568,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A219" s="1">
         <v>217</v>
       </c>
@@ -4562,7 +4576,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A220" s="1">
         <v>218</v>
       </c>
@@ -4570,7 +4584,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A221" s="1">
         <v>219</v>
       </c>
@@ -4578,7 +4592,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A222" s="1">
         <v>220</v>
       </c>
@@ -4586,7 +4600,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A223" s="1">
         <v>221</v>
       </c>
@@ -4594,7 +4608,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A224" s="1">
         <v>222</v>
       </c>
@@ -4602,7 +4616,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A225" s="1">
         <v>223</v>
       </c>
@@ -4610,7 +4624,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A226" s="1">
         <v>224</v>
       </c>
@@ -4618,7 +4632,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A227" s="1">
         <v>225</v>
       </c>
@@ -4626,7 +4640,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A228" s="1">
         <v>226</v>
       </c>
@@ -4634,7 +4648,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A229" s="1">
         <v>227</v>
       </c>
@@ -4642,7 +4656,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A230" s="1">
         <v>228</v>
       </c>
@@ -4650,7 +4664,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A231" s="1">
         <v>229</v>
       </c>
@@ -4658,7 +4672,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A232" s="1">
         <v>230</v>
       </c>
@@ -4666,7 +4680,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A233" s="1">
         <v>231</v>
       </c>
@@ -4674,7 +4688,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A234" s="1">
         <v>232</v>
       </c>
@@ -4682,7 +4696,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A235" s="1">
         <v>233</v>
       </c>
@@ -4690,7 +4704,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A236" s="1">
         <v>234</v>
       </c>
@@ -4698,7 +4712,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A237" s="1">
         <v>235</v>
       </c>
@@ -4706,7 +4720,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A238" s="1">
         <v>236</v>
       </c>
@@ -4714,7 +4728,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A239" s="1">
         <v>237</v>
       </c>
@@ -4722,7 +4736,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A240" s="1">
         <v>238</v>
       </c>
@@ -4730,7 +4744,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A241" s="1">
         <v>239</v>
       </c>
@@ -4738,7 +4752,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A242" s="1">
         <v>240</v>
       </c>
@@ -4746,7 +4760,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A243" s="1">
         <v>241</v>
       </c>
@@ -4754,7 +4768,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A244" s="1">
         <v>242</v>
       </c>
@@ -4762,7 +4776,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A245" s="1">
         <v>243</v>
       </c>
@@ -4770,7 +4784,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A246" s="1">
         <v>244</v>
       </c>
@@ -4778,7 +4792,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A247" s="1">
         <v>245</v>
       </c>
@@ -4786,7 +4800,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A248" s="1">
         <v>246</v>
       </c>
@@ -4794,7 +4808,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A249" s="1">
         <v>247</v>
       </c>
@@ -4802,7 +4816,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A250" s="1">
         <v>248</v>
       </c>
@@ -4810,7 +4824,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A251" s="1">
         <v>249</v>
       </c>
@@ -4818,7 +4832,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A252" s="1">
         <v>250</v>
       </c>
@@ -4826,7 +4840,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A253" s="1">
         <v>251</v>
       </c>
@@ -4834,7 +4848,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A254" s="1">
         <v>252</v>
       </c>
@@ -4842,7 +4856,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A255" s="1">
         <v>253</v>
       </c>
@@ -4850,7 +4864,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A256" s="1">
         <v>254</v>
       </c>
@@ -4858,7 +4872,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A257" s="1">
         <v>255</v>
       </c>
